--- a/pred_ohlcv/54/2019-10-14 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-14 TMTG ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H379"/>
+  <dimension ref="A1:I359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>1.03</v>
       </c>
       <c r="F2" t="n">
-        <v>423300000</v>
+        <v>404600000</v>
       </c>
       <c r="G2" t="n">
         <v>1.028833333333334</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>1.03</v>
       </c>
       <c r="F3" t="n">
-        <v>426700000</v>
+        <v>423300000</v>
       </c>
       <c r="G3" t="n">
-        <v>1.029000000000001</v>
+        <v>1.028833333333334</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>1.03</v>
       </c>
       <c r="F4" t="n">
-        <v>428771407.7669</v>
+        <v>426700000</v>
       </c>
       <c r="G4" t="n">
         <v>1.029000000000001</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -495,15 +509,18 @@
         <v>1.03</v>
       </c>
       <c r="E5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F5" t="n">
-        <v>426700104.9699</v>
+        <v>428771407.7669</v>
       </c>
       <c r="G5" t="n">
         <v>1.029000000000001</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -521,15 +538,18 @@
         <v>1.03</v>
       </c>
       <c r="E6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F6" t="n">
-        <v>421600000</v>
+        <v>426700104.9699</v>
       </c>
       <c r="G6" t="n">
-        <v>1.029166666666668</v>
+        <v>1.029000000000001</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>1.03</v>
       </c>
       <c r="F7" t="n">
-        <v>421856891.8443</v>
+        <v>421600000</v>
       </c>
       <c r="G7" t="n">
         <v>1.029166666666668</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>1.03</v>
       </c>
       <c r="F8" t="n">
-        <v>417943108.1557</v>
+        <v>421856891.8443</v>
       </c>
       <c r="G8" t="n">
-        <v>1.029333333333334</v>
+        <v>1.029166666666668</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>1.03</v>
       </c>
       <c r="F9" t="n">
-        <v>159800000</v>
+        <v>417943108.1557</v>
       </c>
       <c r="G9" t="n">
         <v>1.029333333333334</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C10" t="n">
         <v>1.03</v>
@@ -625,15 +654,18 @@
         <v>1.03</v>
       </c>
       <c r="E10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F10" t="n">
-        <v>105400102.6631</v>
+        <v>159800000</v>
       </c>
       <c r="G10" t="n">
         <v>1.029333333333334</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,7 +674,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C11" t="n">
         <v>1.03</v>
@@ -651,15 +683,18 @@
         <v>1.03</v>
       </c>
       <c r="E11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F11" t="n">
-        <v>426700000</v>
+        <v>105400102.6631</v>
       </c>
       <c r="G11" t="n">
-        <v>1.029500000000001</v>
+        <v>1.029333333333334</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,12 +715,15 @@
         <v>1.03</v>
       </c>
       <c r="F12" t="n">
-        <v>425256891.8443</v>
+        <v>426700000</v>
       </c>
       <c r="G12" t="n">
         <v>1.029500000000001</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,12 +744,15 @@
         <v>1.03</v>
       </c>
       <c r="F13" t="n">
-        <v>430101676</v>
+        <v>425256891.8443</v>
       </c>
       <c r="G13" t="n">
         <v>1.029500000000001</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>1.03</v>
       </c>
       <c r="F14" t="n">
-        <v>426441432.1557</v>
+        <v>430101676</v>
       </c>
       <c r="G14" t="n">
         <v>1.029500000000001</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>1.03</v>
       </c>
       <c r="F15" t="n">
-        <v>416758567.8443</v>
+        <v>426441432.1557</v>
       </c>
       <c r="G15" t="n">
-        <v>1.029333333333334</v>
+        <v>1.029500000000001</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,12 +831,15 @@
         <v>1.03</v>
       </c>
       <c r="F16" t="n">
-        <v>419900000</v>
+        <v>416758567.8443</v>
       </c>
       <c r="G16" t="n">
         <v>1.029333333333334</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>1.03</v>
       </c>
       <c r="F17" t="n">
-        <v>423300000</v>
+        <v>419900000</v>
       </c>
       <c r="G17" t="n">
         <v>1.029333333333334</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>1.03</v>
       </c>
       <c r="F18" t="n">
-        <v>430100000</v>
+        <v>423300000</v>
       </c>
       <c r="G18" t="n">
-        <v>1.029500000000001</v>
+        <v>1.029333333333334</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>1.03</v>
       </c>
       <c r="F19" t="n">
-        <v>421346389.388532</v>
+        <v>430100000</v>
       </c>
       <c r="G19" t="n">
         <v>1.029500000000001</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -885,15 +944,18 @@
         <v>1.03</v>
       </c>
       <c r="E20" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F20" t="n">
-        <v>433500126.5643</v>
+        <v>421346389.388532</v>
       </c>
       <c r="G20" t="n">
         <v>1.029500000000001</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -911,15 +973,18 @@
         <v>1.03</v>
       </c>
       <c r="E21" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F21" t="n">
-        <v>435200000</v>
+        <v>433500126.5643</v>
       </c>
       <c r="G21" t="n">
-        <v>1.029333333333334</v>
+        <v>1.029500000000001</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>1.03</v>
       </c>
       <c r="F22" t="n">
-        <v>436900000</v>
+        <v>435200000</v>
       </c>
       <c r="G22" t="n">
-        <v>1.029166666666668</v>
+        <v>1.029333333333334</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>1.03</v>
       </c>
       <c r="F23" t="n">
-        <v>428653610.611468</v>
+        <v>436900000</v>
       </c>
       <c r="G23" t="n">
         <v>1.029166666666668</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>1.03</v>
       </c>
       <c r="F24" t="n">
-        <v>423300000</v>
+        <v>428653610.611468</v>
       </c>
       <c r="G24" t="n">
         <v>1.029166666666668</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>1.03</v>
       </c>
       <c r="F25" t="n">
-        <v>431546389.388532</v>
+        <v>423300000</v>
       </c>
       <c r="G25" t="n">
         <v>1.029166666666668</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>1.03</v>
       </c>
       <c r="F26" t="n">
-        <v>68000000</v>
+        <v>431546389.388532</v>
       </c>
       <c r="G26" t="n">
         <v>1.029166666666668</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>1.03</v>
       </c>
       <c r="F27" t="n">
-        <v>127.4457</v>
+        <v>68000000</v>
       </c>
       <c r="G27" t="n">
-        <v>1.029000000000001</v>
+        <v>1.029166666666668</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>1.03</v>
       </c>
       <c r="F28" t="n">
-        <v>140.8651</v>
+        <v>127.4457</v>
       </c>
       <c r="G28" t="n">
         <v>1.029000000000001</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>1.03</v>
       </c>
       <c r="F29" t="n">
-        <v>129.3073</v>
+        <v>140.8651</v>
       </c>
       <c r="G29" t="n">
         <v>1.029000000000001</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>1.03</v>
       </c>
       <c r="F30" t="n">
-        <v>148.4484</v>
+        <v>129.3073</v>
       </c>
       <c r="G30" t="n">
         <v>1.029000000000001</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F31" t="n">
-        <v>127.4188</v>
+        <v>148.4484</v>
       </c>
       <c r="G31" t="n">
-        <v>1.028833333333334</v>
+        <v>1.029000000000001</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F32" t="n">
-        <v>111.4913</v>
+        <v>127.4188</v>
       </c>
       <c r="G32" t="n">
-        <v>1.029000000000001</v>
+        <v>1.028833333333334</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>1.03</v>
       </c>
       <c r="F33" t="n">
-        <v>123.6004</v>
+        <v>111.4913</v>
       </c>
       <c r="G33" t="n">
         <v>1.029000000000001</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>1.03</v>
       </c>
       <c r="F34" t="n">
-        <v>131.5238</v>
+        <v>123.6004</v>
       </c>
       <c r="G34" t="n">
         <v>1.029000000000001</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C35" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D35" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E35" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F35" t="n">
-        <v>146.152</v>
+        <v>131.5238</v>
       </c>
       <c r="G35" t="n">
         <v>1.029000000000001</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C36" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D36" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E36" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F36" t="n">
-        <v>144.2839</v>
+        <v>146.152</v>
       </c>
       <c r="G36" t="n">
         <v>1.029000000000001</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F37" t="n">
-        <v>109.8361</v>
+        <v>144.2839</v>
       </c>
       <c r="G37" t="n">
-        <v>1.028833333333334</v>
+        <v>1.029000000000001</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C38" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D38" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E38" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F38" t="n">
-        <v>143.732</v>
+        <v>109.8361</v>
       </c>
       <c r="G38" t="n">
         <v>1.028833333333334</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>1.03</v>
       </c>
       <c r="F39" t="n">
-        <v>102.7601</v>
+        <v>143.732</v>
       </c>
       <c r="G39" t="n">
-        <v>1.029000000000001</v>
+        <v>1.028833333333334</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>1.03</v>
       </c>
       <c r="F40" t="n">
-        <v>102.0464</v>
+        <v>102.7601</v>
       </c>
       <c r="G40" t="n">
         <v>1.029000000000001</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C41" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D41" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E41" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F41" t="n">
-        <v>117.2199</v>
+        <v>102.0464</v>
       </c>
       <c r="G41" t="n">
-        <v>1.028833333333334</v>
+        <v>1.029000000000001</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C42" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D42" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E42" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F42" t="n">
-        <v>108.3466</v>
+        <v>117.2199</v>
       </c>
       <c r="G42" t="n">
-        <v>1.029000000000001</v>
+        <v>1.028833333333334</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F43" t="n">
-        <v>102.5765</v>
+        <v>108.3466</v>
       </c>
       <c r="G43" t="n">
-        <v>1.028833333333334</v>
+        <v>1.029000000000001</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>1.02</v>
       </c>
       <c r="F44" t="n">
-        <v>427684.8712</v>
+        <v>102.5765</v>
       </c>
       <c r="G44" t="n">
-        <v>1.028666666666668</v>
+        <v>1.028833333333334</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C45" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D45" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E45" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F45" t="n">
-        <v>102.2185</v>
+        <v>427684.8712</v>
       </c>
       <c r="G45" t="n">
-        <v>1.028833333333334</v>
+        <v>1.028666666666668</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1555,21 +1692,24 @@
         <v>1.03</v>
       </c>
       <c r="C46" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D46" t="n">
         <v>1.03</v>
       </c>
       <c r="E46" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F46" t="n">
-        <v>427793.3821</v>
+        <v>102.2185</v>
       </c>
       <c r="G46" t="n">
         <v>1.028833333333334</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C47" t="n">
         <v>1.02</v>
       </c>
       <c r="D47" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E47" t="n">
         <v>1.02</v>
       </c>
       <c r="F47" t="n">
-        <v>111.5069</v>
+        <v>427793.3821</v>
       </c>
       <c r="G47" t="n">
-        <v>1.028666666666668</v>
+        <v>1.028833333333334</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,12 +1759,15 @@
         <v>1.02</v>
       </c>
       <c r="F48" t="n">
-        <v>102.2925</v>
+        <v>111.5069</v>
       </c>
       <c r="G48" t="n">
-        <v>1.028500000000001</v>
+        <v>1.028666666666668</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>1.02</v>
       </c>
       <c r="F49" t="n">
-        <v>145.1596</v>
+        <v>102.2925</v>
       </c>
       <c r="G49" t="n">
-        <v>1.028333333333334</v>
+        <v>1.028500000000001</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1817,15 @@
         <v>1.02</v>
       </c>
       <c r="F50" t="n">
-        <v>371407.7669</v>
+        <v>145.1596</v>
       </c>
       <c r="G50" t="n">
-        <v>1.028166666666668</v>
+        <v>1.028333333333334</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>1.02</v>
       </c>
       <c r="F51" t="n">
-        <v>146.5324</v>
+        <v>371407.7669</v>
       </c>
       <c r="G51" t="n">
-        <v>1.028000000000001</v>
+        <v>1.028166666666668</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>1.02</v>
       </c>
       <c r="F52" t="n">
-        <v>138.3754</v>
+        <v>146.5324</v>
       </c>
       <c r="G52" t="n">
-        <v>1.027833333333334</v>
+        <v>1.028000000000001</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>1.02</v>
       </c>
       <c r="F53" t="n">
-        <v>137.9443</v>
+        <v>138.3754</v>
       </c>
       <c r="G53" t="n">
-        <v>1.027666666666668</v>
+        <v>1.027833333333334</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>1.02</v>
       </c>
       <c r="F54" t="n">
-        <v>104.6386</v>
+        <v>137.9443</v>
       </c>
       <c r="G54" t="n">
-        <v>1.027500000000001</v>
+        <v>1.027666666666668</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C55" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D55" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E55" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F55" t="n">
-        <v>139.5702</v>
+        <v>104.6386</v>
       </c>
       <c r="G55" t="n">
         <v>1.027500000000001</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C56" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D56" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E56" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F56" t="n">
-        <v>109.8374</v>
+        <v>139.5702</v>
       </c>
       <c r="G56" t="n">
-        <v>1.027333333333335</v>
+        <v>1.027500000000001</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C57" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D57" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E57" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F57" t="n">
-        <v>118.1137</v>
+        <v>109.8374</v>
       </c>
       <c r="G57" t="n">
         <v>1.027333333333335</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>1.03</v>
       </c>
       <c r="F58" t="n">
-        <v>108.4951</v>
+        <v>118.1137</v>
       </c>
       <c r="G58" t="n">
         <v>1.027333333333335</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>1.03</v>
       </c>
       <c r="F59" t="n">
-        <v>128.6225</v>
+        <v>108.4951</v>
       </c>
       <c r="G59" t="n">
         <v>1.027333333333335</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>1.03</v>
       </c>
       <c r="F60" t="n">
-        <v>127.6081</v>
+        <v>128.6225</v>
       </c>
       <c r="G60" t="n">
         <v>1.027333333333335</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C61" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D61" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E61" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F61" t="n">
-        <v>145.512</v>
+        <v>127.6081</v>
       </c>
       <c r="G61" t="n">
-        <v>1.027166666666668</v>
+        <v>1.027333333333335</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>1.02</v>
       </c>
       <c r="F62" t="n">
-        <v>102.5196</v>
+        <v>145.512</v>
       </c>
       <c r="G62" t="n">
-        <v>1.027000000000001</v>
+        <v>1.027166666666668</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C63" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D63" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E63" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F63" t="n">
-        <v>127.5645</v>
+        <v>102.5196</v>
       </c>
       <c r="G63" t="n">
         <v>1.027000000000001</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C64" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D64" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E64" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F64" t="n">
-        <v>104.7038</v>
+        <v>127.5645</v>
       </c>
       <c r="G64" t="n">
-        <v>1.026833333333335</v>
+        <v>1.027000000000001</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C65" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D65" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E65" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F65" t="n">
-        <v>132.7976</v>
+        <v>104.7038</v>
       </c>
       <c r="G65" t="n">
         <v>1.026833333333335</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C66" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D66" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E66" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F66" t="n">
-        <v>100.9546</v>
+        <v>132.7976</v>
       </c>
       <c r="G66" t="n">
-        <v>1.026666666666668</v>
+        <v>1.026833333333335</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C67" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D67" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E67" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F67" t="n">
-        <v>111.0556</v>
+        <v>100.9546</v>
       </c>
       <c r="G67" t="n">
         <v>1.026666666666668</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C68" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D68" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E68" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F68" t="n">
-        <v>126.1299</v>
+        <v>111.0556</v>
       </c>
       <c r="G68" t="n">
-        <v>1.026500000000002</v>
+        <v>1.026666666666668</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C69" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D69" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E69" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F69" t="n">
-        <v>146.4538</v>
+        <v>126.1299</v>
       </c>
       <c r="G69" t="n">
         <v>1.026500000000002</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C70" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D70" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E70" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F70" t="n">
-        <v>148.1019</v>
+        <v>146.4538</v>
       </c>
       <c r="G70" t="n">
-        <v>1.026333333333335</v>
+        <v>1.026500000000002</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C71" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D71" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E71" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F71" t="n">
-        <v>132.1381</v>
+        <v>148.1019</v>
       </c>
       <c r="G71" t="n">
         <v>1.026333333333335</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>1.03</v>
       </c>
       <c r="F72" t="n">
-        <v>108.798</v>
+        <v>132.1381</v>
       </c>
       <c r="G72" t="n">
         <v>1.026333333333335</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>1.03</v>
       </c>
       <c r="F73" t="n">
-        <v>106.2173</v>
+        <v>108.798</v>
       </c>
       <c r="G73" t="n">
         <v>1.026333333333335</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>1.03</v>
       </c>
       <c r="F74" t="n">
-        <v>138.084</v>
+        <v>106.2173</v>
       </c>
       <c r="G74" t="n">
         <v>1.026333333333335</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C75" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D75" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E75" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F75" t="n">
-        <v>792233.0096</v>
+        <v>138.084</v>
       </c>
       <c r="G75" t="n">
-        <v>1.026166666666668</v>
+        <v>1.026333333333335</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>1.02</v>
       </c>
       <c r="F76" t="n">
-        <v>123.1361</v>
+        <v>792233.0096</v>
       </c>
       <c r="G76" t="n">
-        <v>1.026000000000002</v>
+        <v>1.026166666666668</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C77" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D77" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E77" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F77" t="n">
-        <v>111.1978</v>
+        <v>123.1361</v>
       </c>
       <c r="G77" t="n">
         <v>1.026000000000002</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C78" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D78" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E78" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F78" t="n">
-        <v>149.8502</v>
+        <v>111.1978</v>
       </c>
       <c r="G78" t="n">
-        <v>1.025833333333335</v>
+        <v>1.026000000000002</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2419,15 +2655,18 @@
         <v>1.02</v>
       </c>
       <c r="E79" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F79" t="n">
-        <v>7815934.3582</v>
+        <v>149.8502</v>
       </c>
       <c r="G79" t="n">
-        <v>1.025666666666668</v>
+        <v>1.025833333333335</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2445,15 +2684,18 @@
         <v>1.02</v>
       </c>
       <c r="E80" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F80" t="n">
-        <v>142.6469</v>
+        <v>7815934.3582</v>
       </c>
       <c r="G80" t="n">
-        <v>1.025500000000002</v>
+        <v>1.025666666666668</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C81" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D81" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E81" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F81" t="n">
-        <v>111.8047</v>
+        <v>142.6469</v>
       </c>
       <c r="G81" t="n">
         <v>1.025500000000002</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2745,15 @@
         <v>1.03</v>
       </c>
       <c r="F82" t="n">
-        <v>115.8669</v>
+        <v>111.8047</v>
       </c>
       <c r="G82" t="n">
         <v>1.025500000000002</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C83" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D83" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E83" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F83" t="n">
-        <v>171137.3531</v>
+        <v>115.8669</v>
       </c>
       <c r="G83" t="n">
-        <v>1.025333333333335</v>
+        <v>1.025500000000002</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C84" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D84" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E84" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F84" t="n">
-        <v>102.6261</v>
+        <v>171137.3531</v>
       </c>
       <c r="G84" t="n">
-        <v>1.025000000000002</v>
+        <v>1.025333333333335</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>1.01</v>
       </c>
       <c r="F85" t="n">
-        <v>136.221</v>
+        <v>102.6261</v>
       </c>
       <c r="G85" t="n">
-        <v>1.024666666666668</v>
+        <v>1.025000000000002</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>1.01</v>
       </c>
       <c r="F86" t="n">
-        <v>2961990.7491</v>
+        <v>136.221</v>
       </c>
       <c r="G86" t="n">
-        <v>1.024333333333335</v>
+        <v>1.024666666666668</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>1.01</v>
       </c>
       <c r="F87" t="n">
-        <v>136.9983</v>
+        <v>2961990.7491</v>
       </c>
       <c r="G87" t="n">
-        <v>1.024000000000002</v>
+        <v>1.024333333333335</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2647,21 +2910,24 @@
         <v>1.01</v>
       </c>
       <c r="C88" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D88" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E88" t="n">
         <v>1.01</v>
       </c>
       <c r="F88" t="n">
-        <v>2606391.572</v>
+        <v>136.9983</v>
       </c>
       <c r="G88" t="n">
-        <v>1.023833333333335</v>
+        <v>1.024000000000002</v>
       </c>
       <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,7 +2936,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C89" t="n">
         <v>1.02</v>
@@ -2679,15 +2945,18 @@
         <v>1.02</v>
       </c>
       <c r="E89" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F89" t="n">
-        <v>141.246</v>
+        <v>2606391.572</v>
       </c>
       <c r="G89" t="n">
-        <v>1.023666666666668</v>
+        <v>1.023833333333335</v>
       </c>
       <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>1.02</v>
       </c>
       <c r="F90" t="n">
-        <v>109.4214</v>
+        <v>141.246</v>
       </c>
       <c r="G90" t="n">
-        <v>1.023500000000002</v>
+        <v>1.023666666666668</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C91" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D91" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E91" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F91" t="n">
-        <v>134.8168</v>
+        <v>109.4214</v>
       </c>
       <c r="G91" t="n">
-        <v>1.023333333333335</v>
+        <v>1.023500000000002</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>1.01</v>
       </c>
       <c r="F92" t="n">
-        <v>111.8385</v>
+        <v>134.8168</v>
       </c>
       <c r="G92" t="n">
-        <v>1.023000000000001</v>
+        <v>1.023333333333335</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C93" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D93" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E93" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F93" t="n">
-        <v>119.8895</v>
+        <v>111.8385</v>
       </c>
       <c r="G93" t="n">
-        <v>1.022833333333335</v>
+        <v>1.023000000000001</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>1.02</v>
       </c>
       <c r="F94" t="n">
-        <v>132.0386</v>
+        <v>119.8895</v>
       </c>
       <c r="G94" t="n">
-        <v>1.022666666666668</v>
+        <v>1.022833333333335</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C95" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D95" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E95" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F95" t="n">
-        <v>145.0538</v>
+        <v>132.0386</v>
       </c>
       <c r="G95" t="n">
-        <v>1.022500000000002</v>
+        <v>1.022666666666668</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>1.01</v>
       </c>
       <c r="F96" t="n">
-        <v>149.5557</v>
+        <v>145.0538</v>
       </c>
       <c r="G96" t="n">
-        <v>1.022166666666668</v>
+        <v>1.022500000000002</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C97" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D97" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E97" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F97" t="n">
-        <v>133.5152</v>
+        <v>149.5557</v>
       </c>
       <c r="G97" t="n">
         <v>1.022166666666668</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2907,21 +3200,24 @@
         <v>1.02</v>
       </c>
       <c r="C98" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D98" t="n">
         <v>1.02</v>
       </c>
       <c r="E98" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F98" t="n">
-        <v>159.7566</v>
+        <v>133.5152</v>
       </c>
       <c r="G98" t="n">
-        <v>1.021833333333335</v>
+        <v>1.022166666666668</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2933,21 +3229,24 @@
         <v>1.02</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D99" t="n">
         <v>1.02</v>
       </c>
       <c r="E99" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F99" t="n">
-        <v>100.8525</v>
+        <v>159.7566</v>
       </c>
       <c r="G99" t="n">
-        <v>1.021666666666668</v>
+        <v>1.021833333333335</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>1.02</v>
       </c>
       <c r="F100" t="n">
-        <v>340631.3725</v>
+        <v>100.8525</v>
       </c>
       <c r="G100" t="n">
-        <v>1.021500000000001</v>
+        <v>1.021666666666668</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>1.02</v>
       </c>
       <c r="F101" t="n">
-        <v>130.4192</v>
+        <v>340631.3725</v>
       </c>
       <c r="G101" t="n">
         <v>1.021500000000001</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C102" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D102" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E102" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F102" t="n">
-        <v>1000000</v>
+        <v>130.4192</v>
       </c>
       <c r="G102" t="n">
-        <v>1.021166666666668</v>
+        <v>1.021500000000001</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C103" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D103" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E103" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>1000000</v>
       </c>
       <c r="G103" t="n">
         <v>1.021166666666668</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>1.02</v>
       </c>
       <c r="F104" t="n">
-        <v>107.8754</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
         <v>1.021166666666668</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C105" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D105" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E105" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F105" t="n">
-        <v>100149.1787</v>
+        <v>107.8754</v>
       </c>
       <c r="G105" t="n">
-        <v>1.020833333333335</v>
+        <v>1.021166666666668</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3124,12 +3441,15 @@
         <v>1.01</v>
       </c>
       <c r="F106" t="n">
-        <v>143.7818</v>
+        <v>100149.1787</v>
       </c>
       <c r="G106" t="n">
-        <v>1.020666666666668</v>
+        <v>1.020833333333335</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>1.01</v>
       </c>
       <c r="F107" t="n">
-        <v>2170527.2201</v>
+        <v>143.7818</v>
       </c>
       <c r="G107" t="n">
-        <v>1.020500000000001</v>
+        <v>1.020666666666668</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>1.01</v>
       </c>
       <c r="F108" t="n">
-        <v>1062829.014</v>
+        <v>2170527.2201</v>
       </c>
       <c r="G108" t="n">
-        <v>1.020333333333334</v>
+        <v>1.020500000000001</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>1.01</v>
       </c>
       <c r="F109" t="n">
-        <v>210914.068</v>
+        <v>1062829.014</v>
       </c>
       <c r="G109" t="n">
-        <v>1.020166666666668</v>
+        <v>1.020333333333334</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C110" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D110" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E110" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F110" t="n">
-        <v>117.9442</v>
+        <v>210914.068</v>
       </c>
       <c r="G110" t="n">
         <v>1.020166666666668</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>1.02</v>
       </c>
       <c r="F111" t="n">
-        <v>100000</v>
+        <v>117.9442</v>
       </c>
       <c r="G111" t="n">
         <v>1.020166666666668</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3288,30 +3623,36 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C113" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D113" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E113" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F113" t="n">
-        <v>144.1824</v>
+        <v>100000</v>
       </c>
       <c r="G113" t="n">
-        <v>1.020000000000001</v>
+        <v>1.020166666666668</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C114" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D114" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E114" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F114" t="n">
-        <v>141.1577</v>
+        <v>144.1824</v>
       </c>
       <c r="G114" t="n">
         <v>1.020000000000001</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C115" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D115" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E115" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F115" t="n">
-        <v>111.2282</v>
+        <v>141.1577</v>
       </c>
       <c r="G115" t="n">
-        <v>1.019666666666667</v>
+        <v>1.020000000000001</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C116" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D116" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E116" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F116" t="n">
-        <v>10</v>
+        <v>111.2282</v>
       </c>
       <c r="G116" t="n">
         <v>1.019666666666667</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>1.02</v>
       </c>
       <c r="F117" t="n">
-        <v>119.9437</v>
+        <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>1.019500000000001</v>
+        <v>1.019666666666667</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>1.02</v>
       </c>
       <c r="F118" t="n">
-        <v>134.6292</v>
+        <v>119.9437</v>
       </c>
       <c r="G118" t="n">
-        <v>1.019333333333334</v>
+        <v>1.019500000000001</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,12 +3818,15 @@
         <v>1.02</v>
       </c>
       <c r="F119" t="n">
-        <v>104.5454</v>
+        <v>134.6292</v>
       </c>
       <c r="G119" t="n">
-        <v>1.019166666666668</v>
+        <v>1.019333333333334</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3488,12 +3847,15 @@
         <v>1.02</v>
       </c>
       <c r="F120" t="n">
-        <v>1943600</v>
+        <v>104.5454</v>
       </c>
       <c r="G120" t="n">
-        <v>1.019000000000001</v>
+        <v>1.019166666666668</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="D121" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="F121" t="n">
-        <v>1324169.9767</v>
+        <v>1943600</v>
       </c>
       <c r="G121" t="n">
-        <v>1.018666666666667</v>
+        <v>1.019000000000001</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C122" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E122" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>1324169.9767</v>
       </c>
       <c r="G122" t="n">
         <v>1.018666666666667</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3566,12 +3934,15 @@
         <v>1.02</v>
       </c>
       <c r="F123" t="n">
-        <v>101.1047</v>
+        <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>1.018500000000001</v>
+        <v>1.018666666666667</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>1.02</v>
       </c>
       <c r="F124" t="n">
-        <v>141.8797</v>
+        <v>101.1047</v>
       </c>
       <c r="G124" t="n">
         <v>1.018500000000001</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,12 +3992,15 @@
         <v>1.02</v>
       </c>
       <c r="F125" t="n">
-        <v>137.9027</v>
+        <v>141.8797</v>
       </c>
       <c r="G125" t="n">
-        <v>1.018333333333334</v>
+        <v>1.018500000000001</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C126" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D126" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E126" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F126" t="n">
-        <v>113.041</v>
+        <v>137.9027</v>
       </c>
       <c r="G126" t="n">
-        <v>1.018166666666668</v>
+        <v>1.018333333333334</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,12 +4050,15 @@
         <v>1.01</v>
       </c>
       <c r="F127" t="n">
-        <v>111.0053</v>
+        <v>113.041</v>
       </c>
       <c r="G127" t="n">
-        <v>1.017833333333334</v>
+        <v>1.018166666666668</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3696,12 +4079,15 @@
         <v>1.01</v>
       </c>
       <c r="F128" t="n">
-        <v>5000</v>
+        <v>111.0053</v>
       </c>
       <c r="G128" t="n">
-        <v>1.017666666666667</v>
+        <v>1.017833333333334</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3722,12 +4108,15 @@
         <v>1.01</v>
       </c>
       <c r="F129" t="n">
-        <v>111.1953</v>
+        <v>5000</v>
       </c>
       <c r="G129" t="n">
-        <v>1.017333333333334</v>
+        <v>1.017666666666667</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3748,12 +4137,15 @@
         <v>1.01</v>
       </c>
       <c r="F130" t="n">
-        <v>137.6274</v>
+        <v>111.1953</v>
       </c>
       <c r="G130" t="n">
-        <v>1.017166666666667</v>
+        <v>1.017333333333334</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C131" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D131" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E131" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F131" t="n">
-        <v>147.4359</v>
+        <v>137.6274</v>
       </c>
       <c r="G131" t="n">
-        <v>1.017000000000001</v>
+        <v>1.017166666666667</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C132" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D132" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E132" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F132" t="n">
-        <v>119.7979</v>
+        <v>147.4359</v>
       </c>
       <c r="G132" t="n">
-        <v>1.016666666666667</v>
+        <v>1.017000000000001</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,12 +4224,15 @@
         <v>1.01</v>
       </c>
       <c r="F133" t="n">
-        <v>301.581</v>
+        <v>119.7979</v>
       </c>
       <c r="G133" t="n">
-        <v>1.016333333333334</v>
+        <v>1.016666666666667</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C134" t="n">
         <v>1.01</v>
       </c>
       <c r="D134" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E134" t="n">
         <v>1.01</v>
       </c>
       <c r="F134" t="n">
-        <v>124.3941</v>
+        <v>301.581</v>
       </c>
       <c r="G134" t="n">
-        <v>1.016</v>
+        <v>1.016333333333334</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3869,21 +4273,24 @@
         <v>1.02</v>
       </c>
       <c r="C135" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D135" t="n">
         <v>1.02</v>
       </c>
       <c r="E135" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F135" t="n">
-        <v>3327</v>
+        <v>124.3941</v>
       </c>
       <c r="G135" t="n">
         <v>1.016</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3895,21 +4302,24 @@
         <v>1.02</v>
       </c>
       <c r="C136" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D136" t="n">
         <v>1.02</v>
       </c>
       <c r="E136" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F136" t="n">
-        <v>300143.929</v>
+        <v>3327</v>
       </c>
       <c r="G136" t="n">
-        <v>1.015833333333334</v>
+        <v>1.016</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3921,21 +4331,24 @@
         <v>1.02</v>
       </c>
       <c r="C137" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D137" t="n">
         <v>1.02</v>
       </c>
       <c r="E137" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F137" t="n">
-        <v>132.8454</v>
+        <v>300143.929</v>
       </c>
       <c r="G137" t="n">
-        <v>1.015666666666667</v>
+        <v>1.015833333333334</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3956,12 +4369,15 @@
         <v>1.02</v>
       </c>
       <c r="F138" t="n">
-        <v>1358060.1596</v>
+        <v>132.8454</v>
       </c>
       <c r="G138" t="n">
         <v>1.015666666666667</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,12 +4398,15 @@
         <v>1.02</v>
       </c>
       <c r="F139" t="n">
-        <v>139.3331</v>
+        <v>1358060.1596</v>
       </c>
       <c r="G139" t="n">
         <v>1.015666666666667</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4008,12 +4427,15 @@
         <v>1.02</v>
       </c>
       <c r="F140" t="n">
-        <v>99040.6669</v>
+        <v>139.3331</v>
       </c>
       <c r="G140" t="n">
         <v>1.015666666666667</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C141" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D141" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E141" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F141" t="n">
-        <v>118.5848</v>
+        <v>99040.6669</v>
       </c>
       <c r="G141" t="n">
-        <v>1.015333333333334</v>
+        <v>1.015666666666667</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C142" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D142" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E142" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F142" t="n">
-        <v>292209.094</v>
+        <v>118.5848</v>
       </c>
       <c r="G142" t="n">
-        <v>1.015166666666667</v>
+        <v>1.015333333333334</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C143" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D143" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E143" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F143" t="n">
-        <v>142.7404</v>
+        <v>292209.094</v>
       </c>
       <c r="G143" t="n">
-        <v>1.015333333333334</v>
+        <v>1.015166666666667</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C144" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D144" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E144" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F144" t="n">
-        <v>1032777.4509</v>
+        <v>142.7404</v>
       </c>
       <c r="G144" t="n">
-        <v>1.015500000000001</v>
+        <v>1.015333333333334</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>1.02</v>
       </c>
       <c r="F145" t="n">
-        <v>102.598</v>
+        <v>1032777.4509</v>
       </c>
       <c r="G145" t="n">
-        <v>1.015666666666667</v>
+        <v>1.015500000000001</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C146" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D146" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E146" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F146" t="n">
-        <v>126.6551</v>
+        <v>102.598</v>
       </c>
       <c r="G146" t="n">
         <v>1.015666666666667</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C147" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D147" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E147" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F147" t="n">
-        <v>147.8412</v>
+        <v>126.6551</v>
       </c>
       <c r="G147" t="n">
-        <v>1.015833333333334</v>
+        <v>1.015666666666667</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>1.02</v>
       </c>
       <c r="F148" t="n">
-        <v>92337391.71250001</v>
+        <v>147.8412</v>
       </c>
       <c r="G148" t="n">
         <v>1.015833333333334</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>1.02</v>
       </c>
       <c r="F149" t="n">
-        <v>414400000</v>
+        <v>92337391.71250001</v>
       </c>
       <c r="G149" t="n">
         <v>1.015833333333334</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,12 +4717,15 @@
         <v>1.02</v>
       </c>
       <c r="F150" t="n">
-        <v>420800000</v>
+        <v>414400000</v>
       </c>
       <c r="G150" t="n">
         <v>1.015833333333334</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C151" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D151" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E151" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F151" t="n">
-        <v>10</v>
+        <v>420800000</v>
       </c>
       <c r="G151" t="n">
-        <v>1.016166666666667</v>
+        <v>1.015833333333334</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4320,12 +4775,15 @@
         <v>1.03</v>
       </c>
       <c r="F152" t="n">
-        <v>5242</v>
+        <v>10</v>
       </c>
       <c r="G152" t="n">
-        <v>1.016500000000001</v>
+        <v>1.016166666666667</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4346,12 +4804,15 @@
         <v>1.03</v>
       </c>
       <c r="F153" t="n">
-        <v>114.723</v>
+        <v>5242</v>
       </c>
       <c r="G153" t="n">
-        <v>1.016666666666667</v>
+        <v>1.016500000000001</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C154" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D154" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E154" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F154" t="n">
-        <v>134.0324</v>
+        <v>114.723</v>
       </c>
       <c r="G154" t="n">
         <v>1.016666666666667</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C155" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D155" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E155" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F155" t="n">
-        <v>124.1717</v>
+        <v>134.0324</v>
       </c>
       <c r="G155" t="n">
-        <v>1.017000000000001</v>
+        <v>1.016666666666667</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C156" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D156" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E156" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F156" t="n">
-        <v>133.7193</v>
+        <v>124.1717</v>
       </c>
       <c r="G156" t="n">
-        <v>1.017166666666667</v>
+        <v>1.017000000000001</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C157" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D157" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E157" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F157" t="n">
-        <v>122.119</v>
+        <v>133.7193</v>
       </c>
       <c r="G157" t="n">
-        <v>1.017333333333334</v>
+        <v>1.017166666666667</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4476,12 +4949,15 @@
         <v>1.03</v>
       </c>
       <c r="F158" t="n">
-        <v>122.6711</v>
+        <v>122.119</v>
       </c>
       <c r="G158" t="n">
-        <v>1.017666666666668</v>
+        <v>1.017333333333334</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4502,12 +4978,15 @@
         <v>1.03</v>
       </c>
       <c r="F159" t="n">
-        <v>140.3705</v>
+        <v>122.6711</v>
       </c>
       <c r="G159" t="n">
-        <v>1.017833333333334</v>
+        <v>1.017666666666668</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C160" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D160" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E160" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F160" t="n">
-        <v>127.7249</v>
+        <v>140.3705</v>
       </c>
       <c r="G160" t="n">
         <v>1.017833333333334</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4554,12 +5036,15 @@
         <v>1.02</v>
       </c>
       <c r="F161" t="n">
-        <v>113715</v>
+        <v>127.7249</v>
       </c>
       <c r="G161" t="n">
         <v>1.017833333333334</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C162" t="n">
         <v>1.02</v>
       </c>
       <c r="D162" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E162" t="n">
         <v>1.02</v>
       </c>
       <c r="F162" t="n">
-        <v>1800010</v>
+        <v>113715</v>
       </c>
       <c r="G162" t="n">
-        <v>1.018000000000001</v>
+        <v>1.017833333333334</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4597,21 +5085,24 @@
         <v>1.03</v>
       </c>
       <c r="C163" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D163" t="n">
         <v>1.03</v>
       </c>
       <c r="E163" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F163" t="n">
-        <v>10</v>
+        <v>1800010</v>
       </c>
       <c r="G163" t="n">
-        <v>1.018166666666668</v>
+        <v>1.018000000000001</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C164" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D164" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E164" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F164" t="n">
-        <v>132.6129</v>
+        <v>10</v>
       </c>
       <c r="G164" t="n">
         <v>1.018166666666668</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,12 +5152,15 @@
         <v>1.02</v>
       </c>
       <c r="F165" t="n">
-        <v>127.8485</v>
+        <v>132.6129</v>
       </c>
       <c r="G165" t="n">
-        <v>1.018333333333334</v>
+        <v>1.018166666666668</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C166" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D166" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E166" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F166" t="n">
-        <v>105.6799</v>
+        <v>127.8485</v>
       </c>
       <c r="G166" t="n">
-        <v>1.018666666666668</v>
+        <v>1.018333333333334</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4701,21 +5201,24 @@
         <v>1.03</v>
       </c>
       <c r="C167" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D167" t="n">
         <v>1.03</v>
       </c>
       <c r="E167" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F167" t="n">
-        <v>3301121.6776</v>
+        <v>105.6799</v>
       </c>
       <c r="G167" t="n">
-        <v>1.018833333333334</v>
+        <v>1.018666666666668</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4727,21 +5230,24 @@
         <v>1.03</v>
       </c>
       <c r="C168" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D168" t="n">
         <v>1.03</v>
       </c>
       <c r="E168" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F168" t="n">
-        <v>256104.8543</v>
+        <v>3301121.6776</v>
       </c>
       <c r="G168" t="n">
-        <v>1.019166666666668</v>
+        <v>1.018833333333334</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C169" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D169" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E169" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F169" t="n">
-        <v>104.9803</v>
+        <v>256104.8543</v>
       </c>
       <c r="G169" t="n">
-        <v>1.019333333333335</v>
+        <v>1.019166666666668</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4788,12 +5297,15 @@
         <v>1.02</v>
       </c>
       <c r="F170" t="n">
-        <v>103.9822</v>
+        <v>104.9803</v>
       </c>
       <c r="G170" t="n">
         <v>1.019333333333335</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4814,12 +5326,15 @@
         <v>1.02</v>
       </c>
       <c r="F171" t="n">
-        <v>108.864</v>
+        <v>103.9822</v>
       </c>
       <c r="G171" t="n">
         <v>1.019333333333335</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4840,12 +5355,15 @@
         <v>1.02</v>
       </c>
       <c r="F172" t="n">
-        <v>311939.9088</v>
+        <v>108.864</v>
       </c>
       <c r="G172" t="n">
         <v>1.019333333333335</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C173" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D173" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E173" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F173" t="n">
-        <v>146.8229</v>
+        <v>311939.9088</v>
       </c>
       <c r="G173" t="n">
-        <v>1.019666666666668</v>
+        <v>1.019333333333335</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C174" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D174" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E174" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F174" t="n">
-        <v>144.9517</v>
+        <v>146.8229</v>
       </c>
       <c r="G174" t="n">
         <v>1.019666666666668</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4918,12 +5442,15 @@
         <v>1.02</v>
       </c>
       <c r="F175" t="n">
-        <v>141.062</v>
+        <v>144.9517</v>
       </c>
       <c r="G175" t="n">
-        <v>1.019833333333335</v>
+        <v>1.019666666666668</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C176" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D176" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E176" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F176" t="n">
-        <v>106.1025</v>
+        <v>141.062</v>
       </c>
       <c r="G176" t="n">
-        <v>1.020000000000001</v>
+        <v>1.019833333333335</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4970,12 +5500,15 @@
         <v>1.03</v>
       </c>
       <c r="F177" t="n">
-        <v>123.5703</v>
+        <v>106.1025</v>
       </c>
       <c r="G177" t="n">
-        <v>1.020166666666668</v>
+        <v>1.020000000000001</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C178" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D178" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E178" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F178" t="n">
-        <v>100.1822</v>
+        <v>123.5703</v>
       </c>
       <c r="G178" t="n">
         <v>1.020166666666668</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5022,12 +5558,15 @@
         <v>1.02</v>
       </c>
       <c r="F179" t="n">
-        <v>145.0574</v>
+        <v>100.1822</v>
       </c>
       <c r="G179" t="n">
         <v>1.020166666666668</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C180" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D180" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E180" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F180" t="n">
-        <v>134.3059</v>
+        <v>145.0574</v>
       </c>
       <c r="G180" t="n">
-        <v>1.020333333333335</v>
+        <v>1.020166666666668</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5074,12 +5616,15 @@
         <v>1.03</v>
       </c>
       <c r="F181" t="n">
-        <v>116.9298</v>
+        <v>134.3059</v>
       </c>
       <c r="G181" t="n">
-        <v>1.020833333333335</v>
+        <v>1.020333333333335</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5100,12 +5645,15 @@
         <v>1.03</v>
       </c>
       <c r="F182" t="n">
-        <v>798.0582000000001</v>
+        <v>116.9298</v>
       </c>
       <c r="G182" t="n">
-        <v>1.021000000000001</v>
+        <v>1.020833333333335</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5126,12 +5674,15 @@
         <v>1.03</v>
       </c>
       <c r="F183" t="n">
-        <v>131.7329</v>
+        <v>798.0582000000001</v>
       </c>
       <c r="G183" t="n">
-        <v>1.021166666666668</v>
+        <v>1.021000000000001</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5152,12 +5703,15 @@
         <v>1.03</v>
       </c>
       <c r="F184" t="n">
-        <v>27043.6893</v>
+        <v>131.7329</v>
       </c>
       <c r="G184" t="n">
-        <v>1.021333333333335</v>
+        <v>1.021166666666668</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C185" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D185" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E185" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F185" t="n">
-        <v>132.7274</v>
+        <v>27043.6893</v>
       </c>
       <c r="G185" t="n">
         <v>1.021333333333335</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C186" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D186" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E186" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F186" t="n">
-        <v>108.3098</v>
+        <v>132.7274</v>
       </c>
       <c r="G186" t="n">
-        <v>1.021666666666668</v>
+        <v>1.021333333333335</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C187" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D187" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E187" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F187" t="n">
-        <v>146.6648</v>
+        <v>108.3098</v>
       </c>
       <c r="G187" t="n">
-        <v>1.021833333333335</v>
+        <v>1.021666666666668</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5807,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C188" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D188" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E188" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F188" t="n">
-        <v>139.0033</v>
+        <v>146.6648</v>
       </c>
       <c r="G188" t="n">
-        <v>1.022166666666668</v>
+        <v>1.021833333333335</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C189" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D189" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E189" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F189" t="n">
-        <v>106.0937</v>
+        <v>139.0033</v>
       </c>
       <c r="G189" t="n">
-        <v>1.022333333333335</v>
+        <v>1.022166666666668</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C190" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D190" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E190" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F190" t="n">
-        <v>149.5126</v>
+        <v>106.0937</v>
       </c>
       <c r="G190" t="n">
-        <v>1.022666666666668</v>
+        <v>1.022333333333335</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C191" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D191" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E191" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F191" t="n">
-        <v>102.6596</v>
+        <v>149.5126</v>
       </c>
       <c r="G191" t="n">
         <v>1.022666666666668</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,24 +5923,27 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C192" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D192" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E192" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F192" t="n">
-        <v>105.6283</v>
+        <v>102.6596</v>
       </c>
       <c r="G192" t="n">
-        <v>1.023000000000002</v>
+        <v>1.022666666666668</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5374,24 +5952,27 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C193" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D193" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E193" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F193" t="n">
-        <v>1056030.6299</v>
+        <v>105.6283</v>
       </c>
       <c r="G193" t="n">
-        <v>1.023166666666668</v>
+        <v>1.023000000000002</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5412,12 +5993,15 @@
         <v>1.02</v>
       </c>
       <c r="F194" t="n">
-        <v>859385.03</v>
+        <v>1056030.6299</v>
       </c>
       <c r="G194" t="n">
-        <v>1.023333333333335</v>
+        <v>1.023166666666668</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5438,12 +6022,15 @@
         <v>1.02</v>
       </c>
       <c r="F195" t="n">
-        <v>102.3458</v>
+        <v>859385.03</v>
       </c>
       <c r="G195" t="n">
         <v>1.023333333333335</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C196" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D196" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E196" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F196" t="n">
-        <v>200000</v>
+        <v>102.3458</v>
       </c>
       <c r="G196" t="n">
         <v>1.023333333333335</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C197" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D197" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E197" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F197" t="n">
-        <v>140512.6242</v>
+        <v>200000</v>
       </c>
       <c r="G197" t="n">
         <v>1.023333333333335</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5516,12 +6109,15 @@
         <v>1.02</v>
       </c>
       <c r="F198" t="n">
-        <v>592.6229</v>
+        <v>140512.6242</v>
       </c>
       <c r="G198" t="n">
         <v>1.023333333333335</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5533,21 +6129,24 @@
         <v>1.02</v>
       </c>
       <c r="C199" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D199" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E199" t="n">
         <v>1.02</v>
       </c>
       <c r="F199" t="n">
-        <v>1323643.88</v>
+        <v>592.6229</v>
       </c>
       <c r="G199" t="n">
-        <v>1.023500000000002</v>
+        <v>1.023333333333335</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5568,12 +6167,15 @@
         <v>1.02</v>
       </c>
       <c r="F200" t="n">
-        <v>29776.016</v>
+        <v>1323643.88</v>
       </c>
       <c r="G200" t="n">
-        <v>1.023666666666668</v>
+        <v>1.023500000000002</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5585,21 +6187,24 @@
         <v>1.02</v>
       </c>
       <c r="C201" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D201" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E201" t="n">
         <v>1.02</v>
       </c>
       <c r="F201" t="n">
-        <v>192615.455</v>
+        <v>29776.016</v>
       </c>
       <c r="G201" t="n">
-        <v>1.023833333333335</v>
+        <v>1.023666666666668</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5617,15 +6222,18 @@
         <v>1.02</v>
       </c>
       <c r="E202" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F202" t="n">
-        <v>1255555.3771</v>
+        <v>192615.455</v>
       </c>
       <c r="G202" t="n">
         <v>1.023833333333335</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5643,15 +6251,18 @@
         <v>1.02</v>
       </c>
       <c r="E203" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F203" t="n">
-        <v>962171.066</v>
+        <v>1255555.3771</v>
       </c>
       <c r="G203" t="n">
-        <v>1.023666666666669</v>
+        <v>1.023833333333335</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5672,12 +6283,15 @@
         <v>1.02</v>
       </c>
       <c r="F204" t="n">
-        <v>1040424.882</v>
+        <v>962171.066</v>
       </c>
       <c r="G204" t="n">
         <v>1.023666666666669</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5698,12 +6312,15 @@
         <v>1.02</v>
       </c>
       <c r="F205" t="n">
-        <v>483900.811</v>
+        <v>1040424.882</v>
       </c>
       <c r="G205" t="n">
         <v>1.023666666666669</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5715,21 +6332,24 @@
         <v>1.02</v>
       </c>
       <c r="C206" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D206" t="n">
         <v>1.02</v>
       </c>
       <c r="E206" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F206" t="n">
-        <v>714694.0606</v>
+        <v>483900.811</v>
       </c>
       <c r="G206" t="n">
         <v>1.023666666666669</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5741,21 +6361,24 @@
         <v>1.02</v>
       </c>
       <c r="C207" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D207" t="n">
         <v>1.02</v>
       </c>
       <c r="E207" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F207" t="n">
-        <v>870940.334</v>
+        <v>714694.0606</v>
       </c>
       <c r="G207" t="n">
         <v>1.023666666666669</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5776,12 +6399,15 @@
         <v>1.02</v>
       </c>
       <c r="F208" t="n">
-        <v>2636904.142</v>
+        <v>870940.334</v>
       </c>
       <c r="G208" t="n">
         <v>1.023666666666669</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5802,12 +6428,15 @@
         <v>1.02</v>
       </c>
       <c r="F209" t="n">
-        <v>1641290.983</v>
+        <v>2636904.142</v>
       </c>
       <c r="G209" t="n">
         <v>1.023666666666669</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5828,12 +6457,15 @@
         <v>1.02</v>
       </c>
       <c r="F210" t="n">
-        <v>1147101.197</v>
+        <v>1641290.983</v>
       </c>
       <c r="G210" t="n">
         <v>1.023666666666669</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5845,21 +6477,24 @@
         <v>1.02</v>
       </c>
       <c r="C211" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D211" t="n">
         <v>1.02</v>
       </c>
       <c r="E211" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F211" t="n">
-        <v>1437942.0681</v>
+        <v>1147101.197</v>
       </c>
       <c r="G211" t="n">
-        <v>1.023333333333335</v>
+        <v>1.023666666666669</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5871,21 +6506,24 @@
         <v>1.02</v>
       </c>
       <c r="C212" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D212" t="n">
         <v>1.02</v>
       </c>
       <c r="E212" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F212" t="n">
-        <v>1862296.285</v>
+        <v>1437942.0681</v>
       </c>
       <c r="G212" t="n">
-        <v>1.023166666666669</v>
+        <v>1.023333333333335</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5906,12 +6544,15 @@
         <v>1.02</v>
       </c>
       <c r="F213" t="n">
-        <v>1961359.458</v>
+        <v>1862296.285</v>
       </c>
       <c r="G213" t="n">
-        <v>1.023000000000002</v>
+        <v>1.023166666666669</v>
       </c>
       <c r="H213" t="n">
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5932,12 +6573,15 @@
         <v>1.02</v>
       </c>
       <c r="F214" t="n">
-        <v>2044104.045</v>
+        <v>1961359.458</v>
       </c>
       <c r="G214" t="n">
         <v>1.023000000000002</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5958,12 +6602,15 @@
         <v>1.02</v>
       </c>
       <c r="F215" t="n">
-        <v>2310150.601</v>
+        <v>2044104.045</v>
       </c>
       <c r="G215" t="n">
-        <v>1.022833333333335</v>
+        <v>1.023000000000002</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,24 +6619,27 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C216" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D216" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E216" t="n">
         <v>1.02</v>
       </c>
       <c r="F216" t="n">
-        <v>536047.1024</v>
+        <v>2310150.601</v>
       </c>
       <c r="G216" t="n">
-        <v>1.023000000000002</v>
+        <v>1.022833333333335</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,24 +6648,27 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C217" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D217" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E217" t="n">
         <v>1.02</v>
       </c>
       <c r="F217" t="n">
-        <v>756113.309</v>
+        <v>536047.1024</v>
       </c>
       <c r="G217" t="n">
-        <v>1.022833333333335</v>
+        <v>1.023000000000002</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6036,12 +6689,15 @@
         <v>1.02</v>
       </c>
       <c r="F218" t="n">
-        <v>832685.24</v>
+        <v>756113.309</v>
       </c>
       <c r="G218" t="n">
-        <v>1.022666666666669</v>
+        <v>1.022833333333335</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6062,12 +6718,15 @@
         <v>1.02</v>
       </c>
       <c r="F219" t="n">
-        <v>903489.394</v>
+        <v>832685.24</v>
       </c>
       <c r="G219" t="n">
-        <v>1.022500000000002</v>
+        <v>1.022666666666669</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6088,12 +6747,15 @@
         <v>1.02</v>
       </c>
       <c r="F220" t="n">
-        <v>29140.516</v>
+        <v>903489.394</v>
       </c>
       <c r="G220" t="n">
         <v>1.022500000000002</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6108,18 +6770,21 @@
         <v>1.02</v>
       </c>
       <c r="D221" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E221" t="n">
         <v>1.02</v>
       </c>
       <c r="F221" t="n">
-        <v>385970.5671</v>
+        <v>29140.516</v>
       </c>
       <c r="G221" t="n">
         <v>1.022500000000002</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6134,18 +6799,21 @@
         <v>1.02</v>
       </c>
       <c r="D222" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E222" t="n">
         <v>1.02</v>
       </c>
       <c r="F222" t="n">
-        <v>448793.581</v>
+        <v>385970.5671</v>
       </c>
       <c r="G222" t="n">
         <v>1.022500000000002</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6166,12 +6834,15 @@
         <v>1.02</v>
       </c>
       <c r="F223" t="n">
-        <v>579536.314</v>
+        <v>448793.581</v>
       </c>
       <c r="G223" t="n">
-        <v>1.022333333333335</v>
+        <v>1.022500000000002</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6192,12 +6863,15 @@
         <v>1.02</v>
       </c>
       <c r="F224" t="n">
-        <v>666708.551</v>
+        <v>579536.314</v>
       </c>
       <c r="G224" t="n">
         <v>1.022333333333335</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6218,12 +6892,15 @@
         <v>1.02</v>
       </c>
       <c r="F225" t="n">
-        <v>27793.703</v>
+        <v>666708.551</v>
       </c>
       <c r="G225" t="n">
         <v>1.022333333333335</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6235,21 +6912,24 @@
         <v>1.02</v>
       </c>
       <c r="C226" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D226" t="n">
         <v>1.02</v>
       </c>
       <c r="E226" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F226" t="n">
-        <v>134467.2547</v>
+        <v>27793.703</v>
       </c>
       <c r="G226" t="n">
-        <v>1.022000000000002</v>
+        <v>1.022333333333335</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6261,21 +6941,24 @@
         <v>1.02</v>
       </c>
       <c r="C227" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D227" t="n">
         <v>1.02</v>
       </c>
       <c r="E227" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F227" t="n">
-        <v>296218.563</v>
+        <v>134467.2547</v>
       </c>
       <c r="G227" t="n">
         <v>1.022000000000002</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6296,12 +6979,15 @@
         <v>1.02</v>
       </c>
       <c r="F228" t="n">
-        <v>943242.24</v>
+        <v>296218.563</v>
       </c>
       <c r="G228" t="n">
-        <v>1.021833333333335</v>
+        <v>1.022000000000002</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6322,12 +7008,15 @@
         <v>1.02</v>
       </c>
       <c r="F229" t="n">
-        <v>605403.004</v>
+        <v>943242.24</v>
       </c>
       <c r="G229" t="n">
         <v>1.021833333333335</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6348,12 +7037,15 @@
         <v>1.02</v>
       </c>
       <c r="F230" t="n">
-        <v>107776.958</v>
+        <v>605403.004</v>
       </c>
       <c r="G230" t="n">
         <v>1.021833333333335</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6374,12 +7066,15 @@
         <v>1.02</v>
       </c>
       <c r="F231" t="n">
-        <v>268822.024</v>
+        <v>107776.958</v>
       </c>
       <c r="G231" t="n">
         <v>1.021833333333335</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,24 +7083,27 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C232" t="n">
         <v>1.02</v>
       </c>
       <c r="D232" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E232" t="n">
         <v>1.02</v>
       </c>
       <c r="F232" t="n">
-        <v>507161.6773</v>
+        <v>268822.024</v>
       </c>
       <c r="G232" t="n">
         <v>1.021833333333335</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,24 +7112,27 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C233" t="n">
         <v>1.02</v>
       </c>
       <c r="D233" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E233" t="n">
         <v>1.02</v>
       </c>
       <c r="F233" t="n">
-        <v>1116516.554</v>
+        <v>507161.6773</v>
       </c>
       <c r="G233" t="n">
-        <v>1.021666666666669</v>
+        <v>1.021833333333335</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6452,12 +7153,15 @@
         <v>1.02</v>
       </c>
       <c r="F234" t="n">
-        <v>2894740.579</v>
+        <v>1116516.554</v>
       </c>
       <c r="G234" t="n">
         <v>1.021666666666669</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6478,12 +7182,15 @@
         <v>1.02</v>
       </c>
       <c r="F235" t="n">
-        <v>97405.07000000001</v>
+        <v>2894740.579</v>
       </c>
       <c r="G235" t="n">
         <v>1.021666666666669</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6492,24 +7199,27 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C236" t="n">
         <v>1.02</v>
       </c>
       <c r="D236" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E236" t="n">
         <v>1.02</v>
       </c>
       <c r="F236" t="n">
-        <v>214906.7824</v>
+        <v>97405.07000000001</v>
       </c>
       <c r="G236" t="n">
-        <v>1.021500000000002</v>
+        <v>1.021666666666669</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6518,24 +7228,27 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C237" t="n">
         <v>1.02</v>
       </c>
       <c r="D237" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E237" t="n">
         <v>1.02</v>
       </c>
       <c r="F237" t="n">
-        <v>282487.045</v>
+        <v>214906.7824</v>
       </c>
       <c r="G237" t="n">
-        <v>1.021333333333335</v>
+        <v>1.021500000000002</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6556,12 +7269,15 @@
         <v>1.02</v>
       </c>
       <c r="F238" t="n">
-        <v>371199.875</v>
+        <v>282487.045</v>
       </c>
       <c r="G238" t="n">
         <v>1.021333333333335</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6582,12 +7298,15 @@
         <v>1.02</v>
       </c>
       <c r="F239" t="n">
-        <v>436561.706</v>
+        <v>371199.875</v>
       </c>
       <c r="G239" t="n">
         <v>1.021333333333335</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6608,12 +7327,15 @@
         <v>1.02</v>
       </c>
       <c r="F240" t="n">
-        <v>10000</v>
+        <v>436561.706</v>
       </c>
       <c r="G240" t="n">
-        <v>1.021166666666669</v>
+        <v>1.021333333333335</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6622,24 +7344,27 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C241" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D241" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E241" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F241" t="n">
-        <v>26976.0801</v>
+        <v>10000</v>
       </c>
       <c r="G241" t="n">
-        <v>1.020833333333335</v>
+        <v>1.021166666666669</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6648,24 +7373,27 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C242" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D242" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E242" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F242" t="n">
-        <v>113.8789</v>
+        <v>26976.0801</v>
       </c>
       <c r="G242" t="n">
-        <v>1.020666666666669</v>
+        <v>1.020833333333335</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,7 +7402,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C243" t="n">
         <v>1.02</v>
@@ -6683,15 +7411,18 @@
         <v>1.02</v>
       </c>
       <c r="E243" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F243" t="n">
-        <v>100010</v>
+        <v>113.8789</v>
       </c>
       <c r="G243" t="n">
-        <v>1.020500000000002</v>
+        <v>1.020666666666669</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6703,21 +7434,24 @@
         <v>1.01</v>
       </c>
       <c r="C244" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D244" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E244" t="n">
         <v>1.01</v>
       </c>
       <c r="F244" t="n">
-        <v>143.6643</v>
+        <v>100010</v>
       </c>
       <c r="G244" t="n">
-        <v>1.020166666666669</v>
+        <v>1.020500000000002</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,24 +7460,27 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C245" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D245" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E245" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F245" t="n">
-        <v>3844.1176</v>
+        <v>143.6643</v>
       </c>
       <c r="G245" t="n">
         <v>1.020166666666669</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6764,12 +7501,15 @@
         <v>1.02</v>
       </c>
       <c r="F246" t="n">
-        <v>130.9268</v>
+        <v>3844.1176</v>
       </c>
       <c r="G246" t="n">
-        <v>1.020000000000002</v>
+        <v>1.020166666666669</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6790,12 +7530,15 @@
         <v>1.02</v>
       </c>
       <c r="F247" t="n">
-        <v>145.6668</v>
+        <v>130.9268</v>
       </c>
       <c r="G247" t="n">
         <v>1.020000000000002</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6816,12 +7559,15 @@
         <v>1.02</v>
       </c>
       <c r="F248" t="n">
-        <v>137.516</v>
+        <v>145.6668</v>
       </c>
       <c r="G248" t="n">
-        <v>1.019833333333335</v>
+        <v>1.020000000000002</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6830,24 +7576,27 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C249" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D249" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E249" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F249" t="n">
-        <v>124.7852</v>
+        <v>137.516</v>
       </c>
       <c r="G249" t="n">
-        <v>1.019666666666669</v>
+        <v>1.019833333333335</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6868,12 +7617,15 @@
         <v>1.01</v>
       </c>
       <c r="F250" t="n">
-        <v>122.4405</v>
+        <v>124.7852</v>
       </c>
       <c r="G250" t="n">
-        <v>1.019333333333335</v>
+        <v>1.019666666666669</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6894,12 +7646,15 @@
         <v>1.01</v>
       </c>
       <c r="F251" t="n">
-        <v>117.971</v>
+        <v>122.4405</v>
       </c>
       <c r="G251" t="n">
-        <v>1.019166666666669</v>
+        <v>1.019333333333335</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6908,24 +7663,27 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C252" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D252" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E252" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F252" t="n">
-        <v>985721</v>
+        <v>117.971</v>
       </c>
       <c r="G252" t="n">
-        <v>1.019000000000002</v>
+        <v>1.019166666666669</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6934,7 +7692,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C253" t="n">
         <v>1.02</v>
@@ -6943,15 +7701,18 @@
         <v>1.02</v>
       </c>
       <c r="E253" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F253" t="n">
-        <v>130.0703</v>
+        <v>985721</v>
       </c>
       <c r="G253" t="n">
         <v>1.019000000000002</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6960,24 +7721,27 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C254" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D254" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E254" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F254" t="n">
-        <v>494537.708</v>
+        <v>130.0703</v>
       </c>
       <c r="G254" t="n">
-        <v>1.019166666666669</v>
+        <v>1.019000000000002</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6989,21 +7753,24 @@
         <v>1.02</v>
       </c>
       <c r="C255" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D255" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E255" t="n">
         <v>1.02</v>
       </c>
       <c r="F255" t="n">
-        <v>2298488.515</v>
+        <v>494537.708</v>
       </c>
       <c r="G255" t="n">
         <v>1.019166666666669</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7024,12 +7791,15 @@
         <v>1.02</v>
       </c>
       <c r="F256" t="n">
-        <v>357035.914</v>
+        <v>2298488.515</v>
       </c>
       <c r="G256" t="n">
-        <v>1.019333333333335</v>
+        <v>1.019166666666669</v>
       </c>
       <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7041,21 +7811,24 @@
         <v>1.02</v>
       </c>
       <c r="C257" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D257" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E257" t="n">
         <v>1.02</v>
       </c>
       <c r="F257" t="n">
-        <v>478582.7513</v>
+        <v>357035.914</v>
       </c>
       <c r="G257" t="n">
-        <v>1.019500000000002</v>
+        <v>1.019333333333335</v>
       </c>
       <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7067,21 +7840,24 @@
         <v>1.02</v>
       </c>
       <c r="C258" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D258" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E258" t="n">
         <v>1.02</v>
       </c>
       <c r="F258" t="n">
-        <v>2246227.156</v>
+        <v>478582.7513</v>
       </c>
       <c r="G258" t="n">
         <v>1.019500000000002</v>
       </c>
       <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7102,12 +7878,15 @@
         <v>1.02</v>
       </c>
       <c r="F259" t="n">
-        <v>2546734.842</v>
+        <v>2246227.156</v>
       </c>
       <c r="G259" t="n">
-        <v>1.019333333333335</v>
+        <v>1.019500000000002</v>
       </c>
       <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7128,12 +7907,15 @@
         <v>1.02</v>
       </c>
       <c r="F260" t="n">
-        <v>2608745.189</v>
+        <v>2546734.842</v>
       </c>
       <c r="G260" t="n">
-        <v>1.019166666666669</v>
+        <v>1.019333333333335</v>
       </c>
       <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7154,12 +7936,15 @@
         <v>1.02</v>
       </c>
       <c r="F261" t="n">
-        <v>4705.678</v>
+        <v>2608745.189</v>
       </c>
       <c r="G261" t="n">
         <v>1.019166666666669</v>
       </c>
       <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7180,12 +7965,15 @@
         <v>1.02</v>
       </c>
       <c r="F262" t="n">
-        <v>336828.913</v>
+        <v>4705.678</v>
       </c>
       <c r="G262" t="n">
         <v>1.019166666666669</v>
       </c>
       <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7194,7 +7982,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C263" t="n">
         <v>1.02</v>
@@ -7203,15 +7991,18 @@
         <v>1.02</v>
       </c>
       <c r="E263" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F263" t="n">
-        <v>291511.4085</v>
+        <v>336828.913</v>
       </c>
       <c r="G263" t="n">
         <v>1.019166666666669</v>
       </c>
       <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7220,7 +8011,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C264" t="n">
         <v>1.02</v>
@@ -7229,15 +8020,18 @@
         <v>1.02</v>
       </c>
       <c r="E264" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F264" t="n">
-        <v>519296.702</v>
+        <v>291511.4085</v>
       </c>
       <c r="G264" t="n">
         <v>1.019166666666669</v>
       </c>
       <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7258,12 +8052,15 @@
         <v>1.02</v>
       </c>
       <c r="F265" t="n">
-        <v>975451.9179999999</v>
+        <v>519296.702</v>
       </c>
       <c r="G265" t="n">
         <v>1.019166666666669</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7284,12 +8081,15 @@
         <v>1.02</v>
       </c>
       <c r="F266" t="n">
-        <v>114935.708</v>
+        <v>975451.9179999999</v>
       </c>
       <c r="G266" t="n">
-        <v>1.019333333333335</v>
+        <v>1.019166666666669</v>
       </c>
       <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7301,21 +8101,24 @@
         <v>1.02</v>
       </c>
       <c r="C267" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D267" t="n">
         <v>1.02</v>
       </c>
       <c r="E267" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F267" t="n">
-        <v>332968.474</v>
+        <v>114935.708</v>
       </c>
       <c r="G267" t="n">
-        <v>1.019166666666669</v>
+        <v>1.019333333333335</v>
       </c>
       <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7327,21 +8130,24 @@
         <v>1.02</v>
       </c>
       <c r="C268" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D268" t="n">
         <v>1.02</v>
       </c>
       <c r="E268" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F268" t="n">
-        <v>1644625.995</v>
+        <v>332968.474</v>
       </c>
       <c r="G268" t="n">
         <v>1.019166666666669</v>
       </c>
       <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7362,12 +8168,15 @@
         <v>1.02</v>
       </c>
       <c r="F269" t="n">
-        <v>1460893.336</v>
+        <v>1644625.995</v>
       </c>
       <c r="G269" t="n">
         <v>1.019166666666669</v>
       </c>
       <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7388,12 +8197,15 @@
         <v>1.02</v>
       </c>
       <c r="F270" t="n">
-        <v>2002017.347</v>
+        <v>1460893.336</v>
       </c>
       <c r="G270" t="n">
         <v>1.019166666666669</v>
       </c>
       <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7405,21 +8217,24 @@
         <v>1.02</v>
       </c>
       <c r="C271" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D271" t="n">
         <v>1.02</v>
       </c>
       <c r="E271" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F271" t="n">
-        <v>176305.6379</v>
+        <v>2002017.347</v>
       </c>
       <c r="G271" t="n">
         <v>1.019166666666669</v>
       </c>
       <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7431,21 +8246,24 @@
         <v>1.02</v>
       </c>
       <c r="C272" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D272" t="n">
         <v>1.02</v>
       </c>
       <c r="E272" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F272" t="n">
-        <v>432831.154</v>
+        <v>176305.6379</v>
       </c>
       <c r="G272" t="n">
         <v>1.019166666666669</v>
       </c>
       <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7466,12 +8284,15 @@
         <v>1.02</v>
       </c>
       <c r="F273" t="n">
-        <v>663285.857</v>
+        <v>432831.154</v>
       </c>
       <c r="G273" t="n">
         <v>1.019166666666669</v>
       </c>
       <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7492,12 +8313,15 @@
         <v>1.02</v>
       </c>
       <c r="F274" t="n">
-        <v>1810612.026</v>
+        <v>663285.857</v>
       </c>
       <c r="G274" t="n">
         <v>1.019166666666669</v>
       </c>
       <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7518,12 +8342,15 @@
         <v>1.02</v>
       </c>
       <c r="F275" t="n">
-        <v>4120597.481</v>
+        <v>1810612.026</v>
       </c>
       <c r="G275" t="n">
         <v>1.019166666666669</v>
       </c>
       <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7544,12 +8371,15 @@
         <v>1.02</v>
       </c>
       <c r="F276" t="n">
-        <v>143051.405</v>
+        <v>4120597.481</v>
       </c>
       <c r="G276" t="n">
-        <v>1.019000000000002</v>
+        <v>1.019166666666669</v>
       </c>
       <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7558,24 +8388,27 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C277" t="n">
         <v>1.02</v>
       </c>
       <c r="D277" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E277" t="n">
         <v>1.02</v>
       </c>
       <c r="F277" t="n">
-        <v>2892772.8497</v>
+        <v>143051.405</v>
       </c>
       <c r="G277" t="n">
         <v>1.019000000000002</v>
       </c>
       <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7584,24 +8417,27 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C278" t="n">
         <v>1.02</v>
       </c>
       <c r="D278" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E278" t="n">
         <v>1.02</v>
       </c>
       <c r="F278" t="n">
-        <v>2891764.705</v>
+        <v>2892772.8497</v>
       </c>
       <c r="G278" t="n">
         <v>1.019000000000002</v>
       </c>
       <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7630,6 +8466,9 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -7648,12 +8487,15 @@
         <v>1.02</v>
       </c>
       <c r="F280" t="n">
-        <v>2892647.058</v>
+        <v>2891764.705</v>
       </c>
       <c r="G280" t="n">
         <v>1.019000000000002</v>
       </c>
       <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7671,15 +8513,18 @@
         <v>1.02</v>
       </c>
       <c r="E281" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F281" t="n">
-        <v>280013.0147</v>
+        <v>2892647.058</v>
       </c>
       <c r="G281" t="n">
         <v>1.019000000000002</v>
       </c>
       <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7688,24 +8533,27 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C282" t="n">
         <v>1.02</v>
       </c>
       <c r="D282" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E282" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F282" t="n">
-        <v>466211.121</v>
+        <v>280013.0147</v>
       </c>
       <c r="G282" t="n">
         <v>1.019000000000002</v>
       </c>
       <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7714,24 +8562,27 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C283" t="n">
         <v>1.02</v>
       </c>
       <c r="D283" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E283" t="n">
         <v>1.02</v>
       </c>
       <c r="F283" t="n">
-        <v>618577.202</v>
+        <v>466211.121</v>
       </c>
       <c r="G283" t="n">
         <v>1.019000000000002</v>
       </c>
       <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7752,12 +8603,15 @@
         <v>1.02</v>
       </c>
       <c r="F284" t="n">
-        <v>818509.617</v>
+        <v>618577.202</v>
       </c>
       <c r="G284" t="n">
         <v>1.019000000000002</v>
       </c>
       <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7778,12 +8632,15 @@
         <v>1.02</v>
       </c>
       <c r="F285" t="n">
-        <v>122.9186</v>
+        <v>818509.617</v>
       </c>
       <c r="G285" t="n">
         <v>1.019000000000002</v>
       </c>
       <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7804,12 +8661,15 @@
         <v>1.02</v>
       </c>
       <c r="F286" t="n">
-        <v>934000</v>
+        <v>122.9186</v>
       </c>
       <c r="G286" t="n">
-        <v>1.019166666666669</v>
+        <v>1.019000000000002</v>
       </c>
       <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7830,12 +8690,15 @@
         <v>1.02</v>
       </c>
       <c r="F287" t="n">
-        <v>110.6488</v>
+        <v>934000</v>
       </c>
       <c r="G287" t="n">
         <v>1.019166666666669</v>
       </c>
       <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7856,12 +8719,15 @@
         <v>1.02</v>
       </c>
       <c r="F288" t="n">
-        <v>108.3958</v>
+        <v>110.6488</v>
       </c>
       <c r="G288" t="n">
         <v>1.019166666666669</v>
       </c>
       <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7882,12 +8748,15 @@
         <v>1.02</v>
       </c>
       <c r="F289" t="n">
-        <v>115.4441</v>
+        <v>108.3958</v>
       </c>
       <c r="G289" t="n">
         <v>1.019166666666669</v>
       </c>
       <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7896,24 +8765,27 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C290" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D290" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E290" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F290" t="n">
-        <v>152589.5978</v>
+        <v>115.4441</v>
       </c>
       <c r="G290" t="n">
-        <v>1.019000000000002</v>
+        <v>1.019166666666669</v>
       </c>
       <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7934,12 +8806,15 @@
         <v>1.01</v>
       </c>
       <c r="F291" t="n">
-        <v>120.3071</v>
+        <v>152589.5978</v>
       </c>
       <c r="G291" t="n">
-        <v>1.018833333333335</v>
+        <v>1.019000000000002</v>
       </c>
       <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7960,12 +8835,15 @@
         <v>1.01</v>
       </c>
       <c r="F292" t="n">
-        <v>105.2958</v>
+        <v>120.3071</v>
       </c>
       <c r="G292" t="n">
-        <v>1.018666666666669</v>
+        <v>1.018833333333335</v>
       </c>
       <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7974,24 +8852,27 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C293" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D293" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E293" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F293" t="n">
-        <v>59598.5294</v>
+        <v>105.2958</v>
       </c>
       <c r="G293" t="n">
         <v>1.018666666666669</v>
       </c>
       <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8012,12 +8893,15 @@
         <v>1.02</v>
       </c>
       <c r="F294" t="n">
-        <v>105.0554</v>
+        <v>59598.5294</v>
       </c>
       <c r="G294" t="n">
         <v>1.018666666666669</v>
       </c>
       <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8026,24 +8910,27 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C295" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D295" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E295" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F295" t="n">
-        <v>142.0728</v>
+        <v>105.0554</v>
       </c>
       <c r="G295" t="n">
-        <v>1.018500000000002</v>
+        <v>1.018666666666669</v>
       </c>
       <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8052,24 +8939,27 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C296" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D296" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E296" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F296" t="n">
-        <v>1021473.8397</v>
+        <v>142.0728</v>
       </c>
       <c r="G296" t="n">
         <v>1.018500000000002</v>
       </c>
       <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8078,24 +8968,27 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C297" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D297" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E297" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F297" t="n">
-        <v>10</v>
+        <v>1021473.8397</v>
       </c>
       <c r="G297" t="n">
-        <v>1.018666666666668</v>
+        <v>1.018500000000002</v>
       </c>
       <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8104,7 +8997,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C298" t="n">
         <v>1.03</v>
@@ -8113,15 +9006,18 @@
         <v>1.03</v>
       </c>
       <c r="E298" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F298" t="n">
-        <v>140.1424</v>
+        <v>10</v>
       </c>
       <c r="G298" t="n">
-        <v>1.018833333333335</v>
+        <v>1.018666666666668</v>
       </c>
       <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8133,22 +9029,25 @@
         <v>1.02</v>
       </c>
       <c r="C299" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D299" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E299" t="n">
         <v>1.02</v>
       </c>
       <c r="F299" t="n">
-        <v>118.7875</v>
+        <v>140.1424</v>
       </c>
       <c r="G299" t="n">
         <v>1.018833333333335</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
+      </c>
+      <c r="I299" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -8168,12 +9067,15 @@
         <v>1.02</v>
       </c>
       <c r="F300" t="n">
-        <v>1000000</v>
+        <v>118.7875</v>
       </c>
       <c r="G300" t="n">
         <v>1.018833333333335</v>
       </c>
       <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8194,12 +9096,15 @@
         <v>1.02</v>
       </c>
       <c r="F301" t="n">
-        <v>1000020</v>
+        <v>1000000</v>
       </c>
       <c r="G301" t="n">
-        <v>1.019000000000002</v>
+        <v>1.018833333333335</v>
       </c>
       <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8208,24 +9113,27 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C302" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D302" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E302" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F302" t="n">
-        <v>129.249</v>
+        <v>1000020</v>
       </c>
       <c r="G302" t="n">
-        <v>1.019166666666668</v>
+        <v>1.019000000000002</v>
       </c>
       <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8234,24 +9142,27 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C303" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D303" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E303" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F303" t="n">
-        <v>38516.745</v>
+        <v>129.249</v>
       </c>
       <c r="G303" t="n">
         <v>1.019166666666668</v>
       </c>
       <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8260,25 +9171,28 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C304" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D304" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E304" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F304" t="n">
-        <v>126.8863</v>
+        <v>38516.745</v>
       </c>
       <c r="G304" t="n">
-        <v>1.019500000000002</v>
+        <v>1.019166666666668</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
+      </c>
+      <c r="I304" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -8286,24 +9200,27 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C305" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D305" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E305" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F305" t="n">
-        <v>113.8252</v>
+        <v>126.8863</v>
       </c>
       <c r="G305" t="n">
         <v>1.019500000000002</v>
       </c>
       <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8324,12 +9241,15 @@
         <v>1.02</v>
       </c>
       <c r="F306" t="n">
-        <v>1488355.6484</v>
+        <v>113.8252</v>
       </c>
       <c r="G306" t="n">
         <v>1.019500000000002</v>
       </c>
       <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8338,24 +9258,27 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C307" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D307" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E307" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F307" t="n">
-        <v>135.9989</v>
+        <v>1488355.6484</v>
       </c>
       <c r="G307" t="n">
-        <v>1.019666666666668</v>
+        <v>1.019500000000002</v>
       </c>
       <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8376,12 +9299,15 @@
         <v>1.03</v>
       </c>
       <c r="F308" t="n">
-        <v>107.8499</v>
+        <v>135.9989</v>
       </c>
       <c r="G308" t="n">
-        <v>1.019833333333335</v>
+        <v>1.019666666666668</v>
       </c>
       <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8390,24 +9316,27 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C309" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D309" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E309" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F309" t="n">
-        <v>1492.3762</v>
+        <v>107.8499</v>
       </c>
       <c r="G309" t="n">
-        <v>1.020000000000002</v>
+        <v>1.019833333333335</v>
       </c>
       <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8416,24 +9345,27 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C310" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D310" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E310" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F310" t="n">
-        <v>109.9571</v>
+        <v>1492.3762</v>
       </c>
       <c r="G310" t="n">
-        <v>1.020333333333335</v>
+        <v>1.020000000000002</v>
       </c>
       <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8454,12 +9386,15 @@
         <v>1.03</v>
       </c>
       <c r="F311" t="n">
-        <v>123.7205</v>
+        <v>109.9571</v>
       </c>
       <c r="G311" t="n">
-        <v>1.020666666666669</v>
+        <v>1.020333333333335</v>
       </c>
       <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8468,24 +9403,27 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C312" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D312" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E312" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F312" t="n">
-        <v>106.6256</v>
+        <v>123.7205</v>
       </c>
       <c r="G312" t="n">
         <v>1.020666666666669</v>
       </c>
       <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8506,12 +9444,15 @@
         <v>1.02</v>
       </c>
       <c r="F313" t="n">
-        <v>105.8443</v>
+        <v>106.6256</v>
       </c>
       <c r="G313" t="n">
         <v>1.020666666666669</v>
       </c>
       <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8532,12 +9473,15 @@
         <v>1.02</v>
       </c>
       <c r="F314" t="n">
-        <v>357738.7147</v>
+        <v>105.8443</v>
       </c>
       <c r="G314" t="n">
-        <v>1.020500000000002</v>
+        <v>1.020666666666669</v>
       </c>
       <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8546,24 +9490,27 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C315" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D315" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E315" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F315" t="n">
-        <v>140.9522</v>
+        <v>357738.7147</v>
       </c>
       <c r="G315" t="n">
-        <v>1.020333333333335</v>
+        <v>1.020500000000002</v>
       </c>
       <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8584,12 +9531,15 @@
         <v>1.01</v>
       </c>
       <c r="F316" t="n">
-        <v>50000</v>
+        <v>140.9522</v>
       </c>
       <c r="G316" t="n">
-        <v>1.020166666666668</v>
+        <v>1.020333333333335</v>
       </c>
       <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8610,12 +9560,15 @@
         <v>1.01</v>
       </c>
       <c r="F317" t="n">
-        <v>120.9929</v>
+        <v>50000</v>
       </c>
       <c r="G317" t="n">
-        <v>1.019833333333335</v>
+        <v>1.020166666666668</v>
       </c>
       <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8636,12 +9589,15 @@
         <v>1.01</v>
       </c>
       <c r="F318" t="n">
-        <v>113.0797</v>
+        <v>120.9929</v>
       </c>
       <c r="G318" t="n">
-        <v>1.019666666666668</v>
+        <v>1.019833333333335</v>
       </c>
       <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8662,12 +9618,15 @@
         <v>1.01</v>
       </c>
       <c r="F319" t="n">
-        <v>105.0504</v>
+        <v>113.0797</v>
       </c>
       <c r="G319" t="n">
-        <v>1.019500000000002</v>
+        <v>1.019666666666668</v>
       </c>
       <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8676,24 +9635,27 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C320" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D320" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E320" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F320" t="n">
-        <v>143.4774</v>
+        <v>105.0504</v>
       </c>
       <c r="G320" t="n">
         <v>1.019500000000002</v>
       </c>
       <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8714,12 +9676,15 @@
         <v>1.02</v>
       </c>
       <c r="F321" t="n">
-        <v>131.3514</v>
+        <v>143.4774</v>
       </c>
       <c r="G321" t="n">
         <v>1.019500000000002</v>
       </c>
       <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8728,24 +9693,27 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C322" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D322" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E322" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F322" t="n">
-        <v>812829</v>
+        <v>131.3514</v>
       </c>
       <c r="G322" t="n">
-        <v>1.019333333333335</v>
+        <v>1.019500000000002</v>
       </c>
       <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8754,24 +9722,27 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C323" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D323" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E323" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F323" t="n">
-        <v>103.7914</v>
+        <v>812829</v>
       </c>
       <c r="G323" t="n">
         <v>1.019333333333335</v>
       </c>
       <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8780,24 +9751,27 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C324" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D324" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E324" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F324" t="n">
-        <v>116.7888</v>
+        <v>103.7914</v>
       </c>
       <c r="G324" t="n">
-        <v>1.019166666666668</v>
+        <v>1.019333333333335</v>
       </c>
       <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8806,24 +9780,27 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C325" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D325" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E325" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F325" t="n">
-        <v>145.9511</v>
+        <v>116.7888</v>
       </c>
       <c r="G325" t="n">
         <v>1.019166666666668</v>
       </c>
       <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8844,12 +9821,15 @@
         <v>1.02</v>
       </c>
       <c r="F326" t="n">
-        <v>14683.2352</v>
+        <v>145.9511</v>
       </c>
       <c r="G326" t="n">
         <v>1.019166666666668</v>
       </c>
       <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8870,12 +9850,15 @@
         <v>1.02</v>
       </c>
       <c r="F327" t="n">
-        <v>117.2742</v>
+        <v>14683.2352</v>
       </c>
       <c r="G327" t="n">
-        <v>1.019333333333335</v>
+        <v>1.019166666666668</v>
       </c>
       <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8884,24 +9867,27 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C328" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D328" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E328" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F328" t="n">
-        <v>104.6659</v>
+        <v>117.2742</v>
       </c>
       <c r="G328" t="n">
-        <v>1.019166666666668</v>
+        <v>1.019333333333335</v>
       </c>
       <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8922,12 +9908,15 @@
         <v>1.01</v>
       </c>
       <c r="F329" t="n">
-        <v>110.2956</v>
+        <v>104.6659</v>
       </c>
       <c r="G329" t="n">
-        <v>1.019000000000001</v>
+        <v>1.019166666666668</v>
       </c>
       <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8939,21 +9928,24 @@
         <v>1.01</v>
       </c>
       <c r="C330" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D330" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E330" t="n">
         <v>1.01</v>
       </c>
       <c r="F330" t="n">
-        <v>322.5744</v>
+        <v>110.2956</v>
       </c>
       <c r="G330" t="n">
         <v>1.019000000000001</v>
       </c>
       <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8965,21 +9957,24 @@
         <v>1.01</v>
       </c>
       <c r="C331" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D331" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E331" t="n">
         <v>1.01</v>
       </c>
       <c r="F331" t="n">
-        <v>112.7983</v>
+        <v>322.5744</v>
       </c>
       <c r="G331" t="n">
         <v>1.019000000000001</v>
       </c>
       <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9000,12 +9995,15 @@
         <v>1.01</v>
       </c>
       <c r="F332" t="n">
-        <v>140.1046</v>
+        <v>112.7983</v>
       </c>
       <c r="G332" t="n">
-        <v>1.018833333333335</v>
+        <v>1.019000000000001</v>
       </c>
       <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9017,21 +10015,24 @@
         <v>1.01</v>
       </c>
       <c r="C333" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D333" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E333" t="n">
         <v>1.01</v>
       </c>
       <c r="F333" t="n">
-        <v>21.7843</v>
+        <v>140.1046</v>
       </c>
       <c r="G333" t="n">
         <v>1.018833333333335</v>
       </c>
       <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9040,7 +10041,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C334" t="n">
         <v>1.02</v>
@@ -9049,15 +10050,18 @@
         <v>1.02</v>
       </c>
       <c r="E334" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F334" t="n">
-        <v>105.3655</v>
+        <v>21.7843</v>
       </c>
       <c r="G334" t="n">
         <v>1.018833333333335</v>
       </c>
       <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9066,24 +10070,27 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C335" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D335" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E335" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F335" t="n">
-        <v>108.8692</v>
+        <v>105.3655</v>
       </c>
       <c r="G335" t="n">
-        <v>1.018666666666668</v>
+        <v>1.018833333333335</v>
       </c>
       <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9095,21 +10102,24 @@
         <v>1.01</v>
       </c>
       <c r="C336" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D336" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E336" t="n">
         <v>1.01</v>
       </c>
       <c r="F336" t="n">
-        <v>69064.1136</v>
+        <v>108.8692</v>
       </c>
       <c r="G336" t="n">
         <v>1.018666666666668</v>
       </c>
       <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9121,21 +10131,24 @@
         <v>1.01</v>
       </c>
       <c r="C337" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D337" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E337" t="n">
         <v>1.01</v>
       </c>
       <c r="F337" t="n">
-        <v>3968188.1181</v>
+        <v>69064.1136</v>
       </c>
       <c r="G337" t="n">
-        <v>1.018500000000001</v>
+        <v>1.018666666666668</v>
       </c>
       <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9144,24 +10157,27 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C338" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D338" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E338" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F338" t="n">
-        <v>10</v>
+        <v>3968188.1181</v>
       </c>
       <c r="G338" t="n">
         <v>1.018500000000001</v>
       </c>
       <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9182,12 +10198,15 @@
         <v>1.02</v>
       </c>
       <c r="F339" t="n">
-        <v>121.5837</v>
+        <v>10</v>
       </c>
       <c r="G339" t="n">
         <v>1.018500000000001</v>
       </c>
       <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9208,12 +10227,15 @@
         <v>1.02</v>
       </c>
       <c r="F340" t="n">
-        <v>121.7156</v>
+        <v>121.5837</v>
       </c>
       <c r="G340" t="n">
         <v>1.018500000000001</v>
       </c>
       <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9234,12 +10256,15 @@
         <v>1.02</v>
       </c>
       <c r="F341" t="n">
-        <v>133.7642</v>
+        <v>121.7156</v>
       </c>
       <c r="G341" t="n">
         <v>1.018500000000001</v>
       </c>
       <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9248,24 +10273,27 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C342" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D342" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E342" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F342" t="n">
-        <v>125.662</v>
+        <v>133.7642</v>
       </c>
       <c r="G342" t="n">
-        <v>1.018333333333334</v>
+        <v>1.018500000000001</v>
       </c>
       <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9286,12 +10314,15 @@
         <v>1.01</v>
       </c>
       <c r="F343" t="n">
-        <v>129.3765</v>
+        <v>125.662</v>
       </c>
       <c r="G343" t="n">
-        <v>1.018166666666668</v>
+        <v>1.018333333333334</v>
       </c>
       <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9312,12 +10343,15 @@
         <v>1.01</v>
       </c>
       <c r="F344" t="n">
-        <v>124.8013</v>
+        <v>129.3765</v>
       </c>
       <c r="G344" t="n">
-        <v>1.018000000000001</v>
+        <v>1.018166666666668</v>
       </c>
       <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9338,12 +10372,15 @@
         <v>1.01</v>
       </c>
       <c r="F345" t="n">
-        <v>141.3539</v>
+        <v>124.8013</v>
       </c>
       <c r="G345" t="n">
-        <v>1.017833333333334</v>
+        <v>1.018000000000001</v>
       </c>
       <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9364,12 +10401,15 @@
         <v>1.01</v>
       </c>
       <c r="F346" t="n">
-        <v>135.8783</v>
+        <v>141.3539</v>
       </c>
       <c r="G346" t="n">
-        <v>1.017666666666667</v>
+        <v>1.017833333333334</v>
       </c>
       <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9378,24 +10418,27 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C347" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D347" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E347" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F347" t="n">
-        <v>200050.9803</v>
+        <v>135.8783</v>
       </c>
       <c r="G347" t="n">
         <v>1.017666666666667</v>
       </c>
       <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9416,12 +10459,15 @@
         <v>1.02</v>
       </c>
       <c r="F348" t="n">
-        <v>145.6564</v>
+        <v>200050.9803</v>
       </c>
       <c r="G348" t="n">
         <v>1.017666666666667</v>
       </c>
       <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9430,24 +10476,27 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C349" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D349" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E349" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F349" t="n">
-        <v>108.9225</v>
+        <v>145.6564</v>
       </c>
       <c r="G349" t="n">
-        <v>1.017500000000001</v>
+        <v>1.017666666666667</v>
       </c>
       <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9468,12 +10517,15 @@
         <v>1.01</v>
       </c>
       <c r="F350" t="n">
-        <v>126.9447</v>
+        <v>108.9225</v>
       </c>
       <c r="G350" t="n">
         <v>1.017500000000001</v>
       </c>
       <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9485,21 +10537,24 @@
         <v>1.01</v>
       </c>
       <c r="C351" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D351" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E351" t="n">
         <v>1.01</v>
       </c>
       <c r="F351" t="n">
-        <v>115389344.0434</v>
+        <v>126.9447</v>
       </c>
       <c r="G351" t="n">
-        <v>1.017666666666667</v>
+        <v>1.017500000000001</v>
       </c>
       <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9508,7 +10563,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C352" t="n">
         <v>1.02</v>
@@ -9517,15 +10572,18 @@
         <v>1.02</v>
       </c>
       <c r="E352" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F352" t="n">
-        <v>413271398.1134</v>
+        <v>115389344.0434</v>
       </c>
       <c r="G352" t="n">
-        <v>1.017833333333334</v>
+        <v>1.017666666666667</v>
       </c>
       <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9546,12 +10604,15 @@
         <v>1.02</v>
       </c>
       <c r="F353" t="n">
-        <v>143482050.2564</v>
+        <v>413271398.1134</v>
       </c>
       <c r="G353" t="n">
         <v>1.017833333333334</v>
       </c>
       <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9572,12 +10633,15 @@
         <v>1.02</v>
       </c>
       <c r="F354" t="n">
-        <v>946551.6302</v>
+        <v>143482050.2564</v>
       </c>
       <c r="G354" t="n">
         <v>1.017833333333334</v>
       </c>
       <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9589,21 +10653,24 @@
         <v>1.02</v>
       </c>
       <c r="C355" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D355" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E355" t="n">
         <v>1.02</v>
       </c>
       <c r="F355" t="n">
-        <v>229.6969</v>
+        <v>946551.6302</v>
       </c>
       <c r="G355" t="n">
-        <v>1.018166666666667</v>
+        <v>1.017833333333334</v>
       </c>
       <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9612,7 +10679,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C356" t="n">
         <v>1.03</v>
@@ -9621,15 +10688,18 @@
         <v>1.03</v>
       </c>
       <c r="E356" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F356" t="n">
-        <v>143.256</v>
+        <v>229.6969</v>
       </c>
       <c r="G356" t="n">
-        <v>1.018333333333334</v>
+        <v>1.018166666666667</v>
       </c>
       <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9650,12 +10720,15 @@
         <v>1.03</v>
       </c>
       <c r="F357" t="n">
-        <v>1000</v>
+        <v>143.256</v>
       </c>
       <c r="G357" t="n">
         <v>1.018333333333334</v>
       </c>
       <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9664,24 +10737,27 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C358" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D358" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E358" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F358" t="n">
-        <v>675063.071</v>
+        <v>1000</v>
       </c>
       <c r="G358" t="n">
-        <v>1.018166666666667</v>
+        <v>1.018333333333334</v>
       </c>
       <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9702,7 +10778,7 @@
         <v>1.02</v>
       </c>
       <c r="F359" t="n">
-        <v>1000000</v>
+        <v>675063.071</v>
       </c>
       <c r="G359" t="n">
         <v>1.018166666666667</v>
@@ -9710,524 +10786,7 @@
       <c r="H359" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="C360" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="D360" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="E360" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="F360" t="n">
-        <v>101.0533</v>
-      </c>
-      <c r="G360" t="n">
-        <v>1.018333333333334</v>
-      </c>
-      <c r="H360" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="C361" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="D361" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="E361" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="F361" t="n">
-        <v>143.0293</v>
-      </c>
-      <c r="G361" t="n">
-        <v>1.018500000000001</v>
-      </c>
-      <c r="H361" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="C362" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="D362" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="E362" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="F362" t="n">
-        <v>141.9723</v>
-      </c>
-      <c r="G362" t="n">
-        <v>1.018500000000001</v>
-      </c>
-      <c r="H362" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="C363" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="D363" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="E363" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="F363" t="n">
-        <v>148.1631</v>
-      </c>
-      <c r="G363" t="n">
-        <v>1.018666666666667</v>
-      </c>
-      <c r="H363" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="C364" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D364" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E364" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F364" t="n">
-        <v>127.8025</v>
-      </c>
-      <c r="G364" t="n">
-        <v>1.018500000000001</v>
-      </c>
-      <c r="H364" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="C365" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D365" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E365" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F365" t="n">
-        <v>104.2563</v>
-      </c>
-      <c r="G365" t="n">
-        <v>1.018500000000001</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="C366" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D366" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E366" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F366" t="n">
-        <v>145.8736</v>
-      </c>
-      <c r="G366" t="n">
-        <v>1.018500000000001</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="C367" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D367" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E367" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="F367" t="n">
-        <v>1396296.2698</v>
-      </c>
-      <c r="G367" t="n">
-        <v>1.018333333333334</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="C368" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D368" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E368" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F368" t="n">
-        <v>585049.86</v>
-      </c>
-      <c r="G368" t="n">
-        <v>1.018166666666667</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="C369" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D369" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E369" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F369" t="n">
-        <v>742803.406</v>
-      </c>
-      <c r="G369" t="n">
-        <v>1.018166666666667</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="C370" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D370" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E370" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F370" t="n">
-        <v>905051.99</v>
-      </c>
-      <c r="G370" t="n">
-        <v>1.018000000000001</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="C371" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D371" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E371" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F371" t="n">
-        <v>64207.63</v>
-      </c>
-      <c r="G371" t="n">
-        <v>1.017833333333334</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="C372" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="D372" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E372" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="F372" t="n">
-        <v>116.3424</v>
-      </c>
-      <c r="G372" t="n">
-        <v>1.017666666666667</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="C373" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="D373" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E373" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="F373" t="n">
-        <v>100.7618</v>
-      </c>
-      <c r="G373" t="n">
-        <v>1.017500000000001</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="C374" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="D374" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E374" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="F374" t="n">
-        <v>166832.6188</v>
-      </c>
-      <c r="G374" t="n">
-        <v>1.017333333333334</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="C375" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D375" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E375" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F375" t="n">
-        <v>700</v>
-      </c>
-      <c r="G375" t="n">
-        <v>1.017500000000001</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="C376" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D376" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E376" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F376" t="n">
-        <v>1217489.3724</v>
-      </c>
-      <c r="G376" t="n">
-        <v>1.017666666666667</v>
-      </c>
-      <c r="H376" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="C377" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="D377" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="E377" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="F377" t="n">
-        <v>139.7676</v>
-      </c>
-      <c r="G377" t="n">
-        <v>1.018000000000001</v>
-      </c>
-      <c r="H377" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="C378" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="D378" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="E378" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="F378" t="n">
-        <v>133.8384</v>
-      </c>
-      <c r="G378" t="n">
-        <v>1.018333333333334</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="C379" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="D379" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="E379" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="F379" t="n">
-        <v>113.5554</v>
-      </c>
-      <c r="G379" t="n">
-        <v>1.018666666666667</v>
-      </c>
-      <c r="H379" t="n">
+      <c r="I359" t="n">
         <v>0</v>
       </c>
     </row>
